--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value454.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value454.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.352376737690732</v>
+        <v>0.8628303408622742</v>
       </c>
       <c r="B1">
-        <v>1.886097231882392</v>
+        <v>1.266493678092957</v>
       </c>
       <c r="C1">
-        <v>3.349621528768501</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>3.692274069184606</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>0.3699814769918901</v>
+        <v>1.689386248588562</v>
       </c>
     </row>
   </sheetData>
